--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_noirc_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_noirc_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="760">
   <si>
     <t>zh_CN</t>
   </si>
@@ -784,6 +784,762 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">p.m. 19:46 天気/晴天
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロドス本艦 オペレーター休憩エリア バースペース
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  それで、各々方。何枚ご所望だ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  二枚で。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  俺は……一枚。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  ノイルホーンさんは？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  俺は……詰みだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  ははっ。今日はツイてないな、ノイルホーンさん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  はぁ……出掛けに被るマスクを間違えたんだろうな。くそっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  そういや最近、すごく忙しいんだろう？　外勤任務に出てるだけでなく、他のオペレーターの模擬訓練にも付き合ってるそうじゃないか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ああ、それか。たまに残業してるだけさ、大したことじゃねぇよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  それに、新しく入ってきた若造たちと一緒に訓練するのは嫌いじゃないしな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  ってか、ノイルホーンさんって結構人気者だよな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  俺が新入りの頃は、いつもマスクを着けてる取っつきにくい大先輩だと思って一言も声を掛けられなかったけど……それがまさか、訓練後に飲みに誘われるようになるなんてな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  大先輩だぁ？　俺がそんな年寄りに見えるのか？　そんなら今日の酒は奢らないぜ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  いや、その……そう、兄貴！　良い兄貴分って意味で言ったんだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  だから、な？　優しい兄貴、もう一枚カードをくれよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  なぁ、ディラン。お前も毎日コックピットに籠ってないで、外に出ればもっとモテるんじゃないのか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  いやいや、勘弁してくれよ。やっぱサボってた方が俺らしいっていうかさ。それに今日だってノイルホーンの兄貴が誘ってくれなきゃ顔を出すこともなかっただろうよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ……俺だって籠もってたい気分だよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  この前ノイルホーンさんとドクターが一緒に出てくるのを見かけた時なんて、俺は反射的に物陰に隠れちまったし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  ははっ、なんだよそれ。大げさすぎやしないか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  し、仕方無いだろ……こちとら龍門から戻ってきて以来、ずっと悪夢にうなされてんだから……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  それに……ようやく勇気を振り絞って、ケルシー先生の前で仕事ができるようにはなったけど……未だにドクターや当時の隊列にいた連中を見かけると……家畜の群れが脳裏を過るんだよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  あの光景こそ……まさに地獄だ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  はぁ……そいつは散々だったな。そんで、兄貴はどうなんだ？　あんたも龍門に行ったんだろう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  俺は別に……なんとも……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  けど確かに、あの戦いは凄惨だった。チャードの気持ちもわかる。俺だって、思い出すと背筋が寒くなるくらいだからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ……一杯くれ。こんな話をしたせいで、また嫌な汗をかいちまった……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  あ、俺もあれが欲しい……スピッタースにバニラルートビアを混ぜたやつ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  兄貴は飲まないのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  俺はいい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  ははぁ……さてはヤトウさんに何か言われるのが怖いんだろ？　昔はイケる口だったのになあ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ははっ、俺はあんたらほど若くないんだ。少しは体を気遣ってやらないとな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ――そら、俺のジョーカーを食らえ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  おいおい、まーた兄貴がハッタリかましてるよ。毎回バレバレだってのに……自覚がないのかもしれんが。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  （マスクを掻きながら）そう……なのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  けどマスクを被ってりゃ、表情は読めねぇだろ？　だったらハッタリも効くんじゃねぇのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  声のトーンでもバレるんだよ。兄貴の場合は、嘘を吐く時に口調がやたらと大げさになるんだ。「やってやるぜ！」なんて大声で言ったところで演技なのがバレバレだぜ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  へぇ……つまり、俺は演技を磨かないことにはお話にならんってわけか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  しょうがねぇ、このラウンドはあんたらに譲るさ。好きに飲め。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ……じゃあ、お言葉に甘えて。もう一杯くれ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  チャード、お前はその辺にしとけ。便器に縋って吐きながら、別れた女房と娘の名前を呼んでる姿なんて二度と見たくないからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  それにこの前の打ち上げの時も、ノイルホーンさんがお前を部屋まで担いでくれなきゃ、ドクターとケルシー先生の前で一晩中みっともない姿を晒すとこだったんだぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  うっ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  おいおい、もう勘弁してやれって。それ以上言ったら、チャードが酒瓶抱いたまま気絶しちまうぞ、ははは！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  そうからかわないでやってくれ。チャードは苦しんでるんだ。悲惨な戦場から生きて帰って来られたってのに、それを大事な人に伝えることすらできない辛さは……俺にもわかる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ありがとう……本当に……本当に怖かったんだ……だからこそ、俺はあなたを心から尊敬してるよ……ノイルホーンさん。どんな時でも、緊張した素振りすら見せないし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  俺はあんたらよりもちょっと踏んだ場数が多いだけだ。そのうち慣れてくる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  でも……戻ってきてからも、龍門での光景が……状況が……幾度となく脳裏に過るんだ。今にして思えば、きっと俺の意志だけじゃ、一歩も動けなかったんだろうな……前にも、後ろにも。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  チェルノボーグで、ケルシー先生に「娘にチャンスを与えろ」って言われたよ……父親にもう一度会えるチャンスを作れってさ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  けど……わかってたんだ。俺があの場を生き延びたとしても、娘に会える権利を得られるわけじゃないってことはさ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ……ああ、わかるよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  そんな俺でもここまで来られたのは……先生が勝てると言ってくれたからなんだ。だから俺は、あの時……先生を信じることにしたんだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  でも俺は……一瞬とはいえ、勝てないと思ってしまった。だから、あれ以来……先生とドクターの姿を目にする度に……あの時の自分が情けなくて……恥ずかしくて……仕方ないんだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  別に慰めるために言うわけじゃないが……チャード、俺も勝てないと思ったことくらいあるぜ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  俺は昔、多くの戦場を経験してきた。しかも、ただ延々と戦いを繰り返してただけで、勝敗なんざ俺みたいな「その他大勢」には関係ないことだと思ってたよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  だから勝てないと思うことなんてしょっちゅうあった。負けそうになりゃ逃げればいい。命より惜しいものはねぇんだし、食っていけたらそれで十分だ、ってな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  傭兵ならよくある考え方だ。何も間違っちゃいない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  俺も昔、警備会社を経営していた。報酬分だけ仕事して、それ以外のことはまったくの無関心だったよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  けどよ、ロドスに入っても、依頼を受けて金をもらうって仕組み自体は何の変わりもねぇんだが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ドクターたちと行動を共にしていくうちに、こう思うようになったんだ。俺たちがこのまま勝って勝って勝ち続けることができたら、それも悪くねぇ、ってな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  それからは、戦場でサボることもなくなったし、訓練にも励むようになった。まるで若造のようにな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ……それを言うなら、俺だって……勝ちたいよ。俺は先生たちがしていることを……ずっと……信じてきたんだから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  そして……できることなら、娘にだって……会いたい。普通に考えたら……可能性はかなり低いんだろうが……それでも、諦めたくないんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ははっ、なんだよ。結構やる気あるじゃねぇか！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  いいか、ロドスには俺たちのような人間が必要だ。迷うこともあれば怯えることもあるし、さほど強くもねぇ……でも、それは俺たちのせいじゃねぇ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  俺はドクターに「自分の場所を守れ」と言われてからずっとそうしてきた。だから、給料に見合うだけ働いてるという自負もあるし、ドクターの信頼にも応えてるつもりだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  チャード……あんただって、ケルシー先生に最後までついていけただろ。なのに、帰った後で叱られでもしたか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  いや……先生は……先生は、叱るどころか……俺を、褒めてくれた……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  な？　俺の言う通りだろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ……ありがとう。兄貴のお陰で気が楽になったよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  でも、俺は兄貴のようにどっしりとは構えられないし、次ドクターに会った時は隠れず挨拶することくらいが関の山だ。なんたって古参のオペレーターたちが口を揃えて称賛するような方だしな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  あっ、けど……この間の任務では……あまり……話せなかったし……うっぷ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  そう考えると……きっと俺の事なんて……忘れて……うっ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  ったく……やっぱ今回も飲み過ぎたじゃないか、チャード。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ほら、背中さすってやるよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  どうだ、少しはマシになったか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ふぅ……だいぶ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  俺に言わせりゃ、顔を隠してる奴らが全員とっつきにくい人間だとは限らないぜ。俺を見ればわかるだろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  だから、あんたらはもっと戦場以外でのドクターの姿もしっかり見ておくべきだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  そんで親しくなりゃドクターだって俺たちと大して変わんねぇと思えるようになるさ。サボることもありゃ、ミスもするし、毎日各部門のスケジュール管理に頭を抱えてるような人だからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  ああ、そういや、もうすぐ始まる外勤任務でドクターと一緒になるかもしれないんだった！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  これは絶好のチャンスだな！　俺の好奇心は今、兄貴の素顔からドクターに移ったぜ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ははは……そいつはよかった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  チャード、平気か？　まだ続けるかい？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ゴホッ……ああ、続けよう。だいぶマシになった……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  おう。で、ディラン。お前の役は？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  ロイヤルフラッシュ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  ははっ！　また俺の勝ちだな、兄貴！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  これ以上飲んだら、バースペースがすっからかんになりそうだ。別の物を賭けようぜ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  じゃあ……また兄貴が負けたら、今度こそマスクを外してくれよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ははっ、そいつはオススメしないぜ。俺は別に構わねぇんだが、あんたらががっかりするかもしれないしな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  いや、そう言われるほど俺たちの好奇心がそそられるんだって！　それこそ悪夢を見ちまうほどにさ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  悪夢……？　それってどんな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  ……兄貴がマスクを外すと、下にもう一枚マスクがあるんだよ。それで、いくらめくってもマスクしか見えてこないっていう……それはもう恐ろしい夢さ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  確かにそいつは……悪夢だな。俺まで鳥肌立ってきた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  なんだ、良い夢じゃねぇか。俺は気に入ったぜ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  マスクを何枚も重ねて被れたら、出かける度にマスク選びに時間を取られずに済むしな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  勘弁してくれよ、兄貴……こんな悪夢を毎日見続けなきゃならないなんて、俺は御免だぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  ははっ、ディランが毎日夢に見るほどか。秘密のある奴は魅力的に見えるって聞くが、そいつもあながち間違いじゃないみたいだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  いや、俺は別に隠す気なんてないんだぜ。秘密にするほどのもんでもないしな。そんなに見たいって言うなら、今ここで――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  いや、やめとく！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  兄貴はそのままでいてくれよ！　今マスクを外されたら、なんていうか、その……違和感っての？　そういうのを感じそうだし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  それじゃあ、いつものアレをお願いするってことでいいか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ……あんたらなぁ、また俺に語らせるつもりかよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  ほら、お前らもこっち来いよ。兄貴の物語といやぁ、トランプゲーム最大の余興だからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  はぁ……で、どこまで話したっけな……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  たしか、雨の夜、母と娘が……寂れた寺だか神社だかに隠れてたんだよな？　そこで鬼に会ったとか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  おお、よく覚えてるな、チャード！　そういやちょっと恐ろしげなホラー話で止まってたんだった。で、その後はどうなったんだ、兄貴。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ――あの鬼は、人を殺しに現れたんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  人を……殺しに？　良い奴だと思ってたのに。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  その時の鬼は、ただの鬼に過ぎなかった。だから親子を殺せと命じられた鬼は、親子が隠れてる場所へ向かったんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  そいつはなんて言うか……ひどい話だな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  鬼は母親を気絶させると、娘を片手で持ち上げた。まだ七、八歳の年端もいかない娘は声にならない悲鳴を上げていた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  これも任務だ、仕方がない。鬼はそう自分に言い聞かせると、娘を殺めようとした。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  だが、そこで自分の攻撃が一本の刀によって止められたことに気づいた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  おぉ、かっけぇ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ああ、かっこいいよな。俺もそう……いや、鬼もそう思った。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  刀身に反射する月光が夜闇の中ではあまりに眩かったこともあり、鬼は思わず後ずさった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  わかった！　その鬼の攻撃を止めた奴は親子を助けに来たヒーローだろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ははっ、鬼もそう考えただろうな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  勝ち目が薄いならとっととずらかろう、元々人殺しに興味はなかったんだ……怪我を負ったふりでもして任務は失敗したと報告すりゃ大した問題にもならんだろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  そう考えていたところで、鬼はその刀を振るった女も鬼であることに気づいたんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  へ？　なら、どうしてその女の鬼は親子を守ったんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  鬼も同じことを思っただろうよ。まあ、向こうは別のファミリーの手先に見えたしな。大方、彼女の主は鬼の主と同じで、娘の命を狩ろうとしてたんだろうさ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ……えっ？　じゃあ、その女の鬼は自分の手柄にするために攻撃を止めたってことか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  鬼もそんなこったろうと踏んでたが、戦ってるうちに向こうは本気で親子を助けるために動いてることに気づいた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  そこで鬼は彼女に尋ねた。「あんた、一体何してんだ！」ってな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  すると、女の鬼はこう答えた。「特に目的はない。ただ、これ以上罪のない人を傷つけたくないだけだ」……ってな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  答えを聞いた鬼は呆気に取られた。自分たちにもまだそんな選択肢が残されていたなんて思ってもみなかったからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  聞いてる限り、相手は心優しい人……いや、鬼だったんだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ……ああ。だからその時、鬼は決心した。娘を逃がしてやろうと。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  それは、女の鬼に心を打たれたからか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  はは……単純に勝ち目が無いと思ったから、かもしれねぇな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  でも、任務を放棄しちまったら組織を裏切ることになるわけだろ。そんなことをすれば、どっちの勢力も黙ってないんじゃないか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ああ。だから鬼は、女の鬼と逃げるしかなかった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  おお、命懸けの逃避行か！　ホラーから一気にロマンチックな話に変わったな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  これのどこがロマンチックだ。いいか、逃げるってのはそう簡単なことじゃない。共に怪我をすることもあれば、共に病にうなされることもあったし……共に死にそうになった時だって何度もあった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  しかも、女の鬼は日光が苦手なせいでマスクが手放せなかった。だから、どこへ行っても信用を得ることができなかったんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  そんな彼女を見て、鬼は思った。マスクを着けた奴ってそんなに怖いか？　むしろカッコイイじゃねぇか、と。それから鬼は苦労に苦労を重ね、大量のマスクをかき集めていった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  大量の……マスク？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ああ、大変だったんだぜ。どのマスクも、どこぞの一族の間で千年以上受け継がれてきた不思議な力が秘められたもんらしくてな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  なんか……聞けば聞くほど胡散臭さが際立つな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  そんで？　その秘められた力ってのは具体的にどんなものがあったんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  そうだな……着ければ不老不死になれるものだとか、怪力になれるもんとか、それはもう色々あった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  そしてある日……鬼は最強のマスクを手に入れた。まぁ、そのためにとんでもねぇ代償を払った挙げ句、危うく命を落としそうになったわけだが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  女の鬼は、そんな彼をひどく心配していた。だが、追手は一向に後を絶たない……そこで鬼はとっさに閃いて、そのマスクを着けた！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  そこからは一瞬の出来事だった。石は震え、砂塵が舞い、敵の顔色は一変した――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  そして鬼はこう叫んだ。「俺は限界を超越した！」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ……それで漲る力をもって、敵を全員倒しましたとさ。めでたしめでたし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  はあ？　なんだそれ？　オチが雑すぎるだろ！　ったく、兄貴の物語はいつもそうだ！　終盤になると、どんどん脱線してとんでもない方向にいきやがる……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  おっ、俺の勝ちじゃないか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  へ！？　うわっ、聞き入ってたせいで……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  俺も……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  皆やられたみたいだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  わかった！　これが兄貴の得意技なんだろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  はっはっは！　下手な芝居なんざするよりもずっと効率が良いな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  あーあ、二匹の鬼の物語、もっと聞きたかったなぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  そういや、この前話してくれた吹雪の夜に一匹の鬼が十人の大将を倒したって話。あれは面白かった！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ああ、その話は今度な。見ろよ、チャードの瞼が今にもくっつきそうだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  それに、あんたの外勤任務が終われば、また一緒に飲めるだろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ……って、あそこにいるの……ドクターじゃないか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  マジかよ！　トランプに夢中で気づかなかった……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  ってことは……さっき話してたことは全部……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ゴホッゴホッ……あ、頭が……クラクラするような……気が……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  今更酔ったフリしても遅いぞ、チャード。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  よぉ、ドクター。あんたがバーに来るなんて珍しいな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="アーミヤから、リラックスしてくるよう勧められたんだ。;……;まさか、迷彩モジュールが切れたのか？", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  お、おい……突っつくなって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  あー……ド、ドクター、お久し……じゃなくて、こんばんは！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ふぅ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="こんばんは。チャード、ディラン、バティ、ノイルホーン。", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  ド、クター……俺たちの名前、覚えてくれてたんですか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ははっ、ドクターの記憶力は相変わらずだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  山ほどある資料を全部読まなきゃいけねぇ上に、俺たちの名前も全員分覚えなきゃならねぇってか。まっ、あんま無理すんなよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="このくらい、当然のことだ。;……;PRTSの補助もあるし、問題ない。", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="バティ"]  ドクター、俺たちはそろそろ部屋に戻ります。お邪魔してすみませんでした。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  ドクター、また外勤任務でお会いしましょう！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ディラン"]  おい行くぞ、チャード。いつまで突っ立ってんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="チャード"]  へ？　あ、ああ……それでは、ドクター……また。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  なあ、ドクター。隣いいか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  悪かったな、見苦しいモン見せちまって。仕事終わりに集まって、酒を飲みながらバカ騒ぎしてたんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  ……あいつらはまだ、あんたのことをあんま理解できちゃいない。けど俺は、あんたがユーモアのあるお人好しだってことを知ってるぜ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  それに……俺みたいな奴でも、あんたの指揮のおかげで、ごちゃついた戦場の中に守るべき場所を見出すことができたわけだしな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  俺が守るべき場所は、ここだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="砂虫の足の炭火焼きでも食べるか？;サボテンの辣椒老媽和えでもどうだ？", values="1;2")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  おっ、良いな。もらうよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ノイルホーン"]  そんじゃあ、そいつを肴に一杯どうだ、ドクター？　たまにはこういうのも悪くねぇだろ。
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">19:46 P.M. \ Clear
 </t>
   </si>
@@ -1892,7 +2648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="오퍼레이터 딜런"]  스트레이트!
+    <t xml:space="preserve">[name="오퍼레이터 딜런"]  스트레이트 플러쉬!
 </t>
   </si>
   <si>
@@ -2016,7 +2772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="느와르 코르네"]  밤이라 그런지 유독 빛이 나더라고, 오니는 자신도 모르게 한 발 물러섰어.
+    <t xml:space="preserve">[name="느와르 코르네"]  밤이라 그런지 유독 빛이 나더라고. 오니는 자신도 모르게 한발 물러섰어.
 </t>
   </si>
   <si>
@@ -2052,7 +2808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="느와르 코르네"]  그래서 오니는 녀석에게 대체 뭐하는 짓이냐고 물었지.
+    <t xml:space="preserve">[name="느와르 코르네"]  그래서 오니는 녀석에게 대체 뭐 하는 짓이냐고 물었지.
 </t>
   </si>
   <si>
@@ -2224,7 +2980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="오퍼레이터 차드"]  휴…
+    <t xml:space="preserve">[name="오퍼레이터 차드"]  후우……
 </t>
   </si>
   <si>
@@ -2676,13 +3432,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2690,13 +3446,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>383</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2704,13 +3460,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2718,13 +3474,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2732,13 +3488,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>386</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2746,13 +3502,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2760,13 +3516,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>388</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2774,13 +3530,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2788,13 +3544,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2802,13 +3558,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2816,13 +3572,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>392</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2830,13 +3586,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>393</v>
       </c>
       <c r="D13" t="s">
-        <v>393</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2844,13 +3600,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>394</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2858,13 +3614,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>395</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2872,13 +3628,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s">
-        <v>396</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2886,13 +3642,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>397</v>
       </c>
       <c r="D17" t="s">
-        <v>397</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2900,13 +3656,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>398</v>
       </c>
       <c r="D18" t="s">
-        <v>398</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2914,13 +3670,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>399</v>
       </c>
       <c r="D19" t="s">
-        <v>399</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2928,13 +3684,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>400</v>
       </c>
       <c r="D20" t="s">
-        <v>400</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2942,13 +3698,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>401</v>
       </c>
       <c r="D21" t="s">
-        <v>401</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2956,13 +3712,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>402</v>
       </c>
       <c r="D22" t="s">
-        <v>402</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2970,13 +3726,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>403</v>
       </c>
       <c r="D23" t="s">
-        <v>403</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2984,13 +3740,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>404</v>
       </c>
       <c r="D24" t="s">
-        <v>404</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2998,13 +3754,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
+        <v>405</v>
       </c>
       <c r="D25" t="s">
-        <v>405</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3012,13 +3768,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>406</v>
       </c>
       <c r="D26" t="s">
-        <v>406</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3026,13 +3782,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>407</v>
       </c>
       <c r="D27" t="s">
-        <v>407</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3040,13 +3796,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>408</v>
       </c>
       <c r="D28" t="s">
-        <v>408</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3054,13 +3810,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>409</v>
       </c>
       <c r="D29" t="s">
-        <v>409</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3068,13 +3824,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>410</v>
       </c>
       <c r="D30" t="s">
-        <v>410</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3082,13 +3838,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>411</v>
       </c>
       <c r="D31" t="s">
-        <v>411</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3096,13 +3852,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>412</v>
       </c>
       <c r="D32" t="s">
-        <v>412</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3110,13 +3866,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="D33" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3124,13 +3880,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="D34" t="s">
-        <v>414</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3138,13 +3894,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>415</v>
       </c>
       <c r="D35" t="s">
-        <v>415</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3152,13 +3908,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>416</v>
       </c>
       <c r="D36" t="s">
-        <v>416</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3166,13 +3922,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>417</v>
       </c>
       <c r="D37" t="s">
-        <v>417</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3180,13 +3936,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>418</v>
       </c>
       <c r="D38" t="s">
-        <v>418</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3194,13 +3950,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>419</v>
       </c>
       <c r="D39" t="s">
-        <v>419</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3208,13 +3964,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>420</v>
       </c>
       <c r="D40" t="s">
-        <v>420</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3222,13 +3978,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>421</v>
       </c>
       <c r="D41" t="s">
-        <v>421</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3236,13 +3992,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>422</v>
       </c>
       <c r="D42" t="s">
-        <v>422</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3250,13 +4006,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>423</v>
       </c>
       <c r="D43" t="s">
-        <v>423</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3264,13 +4020,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>424</v>
       </c>
       <c r="D44" t="s">
-        <v>424</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3278,13 +4034,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s">
-        <v>236</v>
+        <v>425</v>
       </c>
       <c r="D45" t="s">
-        <v>425</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3292,13 +4048,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="C46" t="s">
-        <v>237</v>
+        <v>426</v>
       </c>
       <c r="D46" t="s">
-        <v>426</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3306,13 +4062,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
+        <v>427</v>
       </c>
       <c r="D47" t="s">
-        <v>427</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3320,13 +4076,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
-        <v>239</v>
+        <v>428</v>
       </c>
       <c r="D48" t="s">
-        <v>428</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3334,13 +4090,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>429</v>
       </c>
       <c r="D49" t="s">
-        <v>429</v>
+        <v>618</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3348,13 +4104,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>430</v>
       </c>
       <c r="D50" t="s">
-        <v>430</v>
+        <v>619</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3362,13 +4118,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>431</v>
       </c>
       <c r="D51" t="s">
-        <v>431</v>
+        <v>620</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3376,13 +4132,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>432</v>
       </c>
       <c r="D52" t="s">
-        <v>432</v>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3390,13 +4146,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="C53" t="s">
-        <v>244</v>
+        <v>433</v>
       </c>
       <c r="D53" t="s">
-        <v>433</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3404,13 +4160,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>434</v>
       </c>
       <c r="D54" t="s">
-        <v>434</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3418,13 +4174,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>246</v>
+        <v>435</v>
       </c>
       <c r="D55" t="s">
-        <v>435</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3432,13 +4188,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>247</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>436</v>
       </c>
       <c r="D56" t="s">
-        <v>436</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3446,13 +4202,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>248</v>
+        <v>437</v>
       </c>
       <c r="D57" t="s">
-        <v>437</v>
+        <v>626</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3460,13 +4216,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>438</v>
       </c>
       <c r="D58" t="s">
-        <v>438</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3474,13 +4230,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>439</v>
       </c>
       <c r="D59" t="s">
-        <v>439</v>
+        <v>628</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3488,13 +4244,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>440</v>
       </c>
       <c r="D60" t="s">
-        <v>440</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3502,13 +4258,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>441</v>
       </c>
       <c r="D61" t="s">
-        <v>441</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3516,13 +4272,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>442</v>
       </c>
       <c r="D62" t="s">
-        <v>442</v>
+        <v>631</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3530,13 +4286,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>443</v>
       </c>
       <c r="D63" t="s">
-        <v>443</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3544,13 +4300,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>444</v>
       </c>
       <c r="D64" t="s">
-        <v>444</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3558,13 +4314,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>445</v>
       </c>
       <c r="D65" t="s">
-        <v>445</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3572,13 +4328,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="C66" t="s">
-        <v>257</v>
+        <v>446</v>
       </c>
       <c r="D66" t="s">
-        <v>446</v>
+        <v>635</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3586,13 +4342,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="C67" t="s">
-        <v>258</v>
+        <v>447</v>
       </c>
       <c r="D67" t="s">
-        <v>447</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3600,13 +4356,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="C68" t="s">
-        <v>259</v>
+        <v>448</v>
       </c>
       <c r="D68" t="s">
-        <v>448</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3614,13 +4370,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s">
-        <v>260</v>
+        <v>449</v>
       </c>
       <c r="D69" t="s">
-        <v>449</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3628,13 +4384,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>450</v>
       </c>
       <c r="D70" t="s">
-        <v>450</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3642,13 +4398,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>262</v>
+        <v>451</v>
       </c>
       <c r="D71" t="s">
-        <v>451</v>
+        <v>640</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3656,13 +4412,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>263</v>
+        <v>452</v>
       </c>
       <c r="D72" t="s">
-        <v>452</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3670,13 +4426,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>453</v>
       </c>
       <c r="D73" t="s">
-        <v>453</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3684,13 +4440,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>265</v>
+        <v>454</v>
       </c>
       <c r="D74" t="s">
-        <v>454</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3698,13 +4454,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>266</v>
+        <v>455</v>
       </c>
       <c r="D75" t="s">
-        <v>455</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3712,13 +4468,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>267</v>
+        <v>456</v>
       </c>
       <c r="D76" t="s">
-        <v>456</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3726,13 +4482,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>457</v>
       </c>
       <c r="D77" t="s">
-        <v>457</v>
+        <v>646</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3740,13 +4496,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="C78" t="s">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="D78" t="s">
-        <v>458</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3754,13 +4510,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="C79" t="s">
-        <v>270</v>
+        <v>459</v>
       </c>
       <c r="D79" t="s">
-        <v>459</v>
+        <v>648</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3768,13 +4524,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s">
-        <v>460</v>
+        <v>649</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3782,13 +4538,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s">
-        <v>272</v>
+        <v>461</v>
       </c>
       <c r="D81" t="s">
-        <v>461</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3796,13 +4552,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="C82" t="s">
-        <v>273</v>
+        <v>462</v>
       </c>
       <c r="D82" t="s">
-        <v>462</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3810,13 +4566,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>274</v>
       </c>
       <c r="C83" t="s">
-        <v>274</v>
+        <v>463</v>
       </c>
       <c r="D83" t="s">
-        <v>463</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3824,13 +4580,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="C84" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
       <c r="D84" t="s">
-        <v>464</v>
+        <v>653</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3838,13 +4594,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>276</v>
       </c>
       <c r="C85" t="s">
-        <v>276</v>
+        <v>465</v>
       </c>
       <c r="D85" t="s">
-        <v>465</v>
+        <v>654</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3852,13 +4608,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>277</v>
       </c>
       <c r="C86" t="s">
-        <v>277</v>
+        <v>466</v>
       </c>
       <c r="D86" t="s">
-        <v>466</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3866,13 +4622,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
+        <v>467</v>
       </c>
       <c r="D87" t="s">
-        <v>467</v>
+        <v>656</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3880,13 +4636,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="C88" t="s">
-        <v>279</v>
+        <v>468</v>
       </c>
       <c r="D88" t="s">
-        <v>468</v>
+        <v>657</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3894,13 +4650,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="C89" t="s">
-        <v>280</v>
+        <v>469</v>
       </c>
       <c r="D89" t="s">
-        <v>469</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3908,13 +4664,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="C90" t="s">
-        <v>281</v>
+        <v>470</v>
       </c>
       <c r="D90" t="s">
-        <v>470</v>
+        <v>659</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3922,13 +4678,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="C91" t="s">
-        <v>282</v>
+        <v>471</v>
       </c>
       <c r="D91" t="s">
-        <v>471</v>
+        <v>660</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3936,13 +4692,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="C92" t="s">
-        <v>283</v>
+        <v>472</v>
       </c>
       <c r="D92" t="s">
-        <v>472</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3950,13 +4706,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="C93" t="s">
-        <v>284</v>
+        <v>473</v>
       </c>
       <c r="D93" t="s">
-        <v>473</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3964,13 +4720,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>474</v>
       </c>
       <c r="D94" t="s">
-        <v>474</v>
+        <v>663</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3978,13 +4734,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>475</v>
       </c>
       <c r="D95" t="s">
-        <v>475</v>
+        <v>664</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3992,13 +4748,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>287</v>
       </c>
       <c r="C96" t="s">
-        <v>287</v>
+        <v>476</v>
       </c>
       <c r="D96" t="s">
-        <v>476</v>
+        <v>665</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4006,13 +4762,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="C97" t="s">
-        <v>288</v>
+        <v>477</v>
       </c>
       <c r="D97" t="s">
-        <v>477</v>
+        <v>666</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4020,13 +4776,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>289</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="D98" t="s">
-        <v>478</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4034,13 +4790,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>479</v>
       </c>
       <c r="D99" t="s">
-        <v>479</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4048,13 +4804,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>291</v>
       </c>
       <c r="C100" t="s">
-        <v>291</v>
+        <v>480</v>
       </c>
       <c r="D100" t="s">
-        <v>480</v>
+        <v>669</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4062,13 +4818,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="C101" t="s">
-        <v>292</v>
+        <v>481</v>
       </c>
       <c r="D101" t="s">
-        <v>481</v>
+        <v>670</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4076,13 +4832,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="C102" t="s">
-        <v>293</v>
+        <v>482</v>
       </c>
       <c r="D102" t="s">
-        <v>482</v>
+        <v>671</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4090,13 +4846,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="C103" t="s">
-        <v>294</v>
+        <v>483</v>
       </c>
       <c r="D103" t="s">
-        <v>483</v>
+        <v>672</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4104,13 +4860,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="C104" t="s">
-        <v>295</v>
+        <v>484</v>
       </c>
       <c r="D104" t="s">
-        <v>484</v>
+        <v>673</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4118,13 +4874,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c r="C105" t="s">
-        <v>296</v>
+        <v>485</v>
       </c>
       <c r="D105" t="s">
-        <v>485</v>
+        <v>674</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4132,13 +4888,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="C106" t="s">
-        <v>297</v>
+        <v>486</v>
       </c>
       <c r="D106" t="s">
-        <v>486</v>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4146,13 +4902,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>487</v>
       </c>
       <c r="D107" t="s">
-        <v>487</v>
+        <v>676</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4160,13 +4916,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>299</v>
       </c>
       <c r="C108" t="s">
-        <v>299</v>
+        <v>488</v>
       </c>
       <c r="D108" t="s">
-        <v>488</v>
+        <v>677</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4174,13 +4930,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="C109" t="s">
-        <v>300</v>
+        <v>489</v>
       </c>
       <c r="D109" t="s">
-        <v>489</v>
+        <v>678</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4188,13 +4944,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>301</v>
       </c>
       <c r="C110" t="s">
-        <v>301</v>
+        <v>490</v>
       </c>
       <c r="D110" t="s">
-        <v>490</v>
+        <v>679</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4202,13 +4958,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="C111" t="s">
-        <v>302</v>
+        <v>491</v>
       </c>
       <c r="D111" t="s">
-        <v>491</v>
+        <v>680</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4216,13 +4972,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="C112" t="s">
-        <v>303</v>
+        <v>492</v>
       </c>
       <c r="D112" t="s">
-        <v>492</v>
+        <v>681</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4230,13 +4986,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="C113" t="s">
-        <v>304</v>
+        <v>493</v>
       </c>
       <c r="D113" t="s">
-        <v>493</v>
+        <v>682</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4244,13 +5000,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="C114" t="s">
-        <v>305</v>
+        <v>494</v>
       </c>
       <c r="D114" t="s">
-        <v>494</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4258,13 +5014,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>306</v>
       </c>
       <c r="C115" t="s">
-        <v>306</v>
+        <v>495</v>
       </c>
       <c r="D115" t="s">
-        <v>495</v>
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4272,13 +5028,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c r="C116" t="s">
-        <v>307</v>
+        <v>496</v>
       </c>
       <c r="D116" t="s">
-        <v>496</v>
+        <v>685</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4286,13 +5042,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s">
-        <v>308</v>
+        <v>497</v>
       </c>
       <c r="D117" t="s">
-        <v>497</v>
+        <v>686</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4300,13 +5056,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>309</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
+        <v>498</v>
       </c>
       <c r="D118" t="s">
-        <v>498</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4314,13 +5070,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>310</v>
       </c>
       <c r="C119" t="s">
-        <v>310</v>
+        <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>499</v>
+        <v>688</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4328,13 +5084,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>311</v>
       </c>
       <c r="C120" t="s">
-        <v>311</v>
+        <v>500</v>
       </c>
       <c r="D120" t="s">
-        <v>500</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4342,13 +5098,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>312</v>
       </c>
       <c r="C121" t="s">
-        <v>312</v>
+        <v>501</v>
       </c>
       <c r="D121" t="s">
-        <v>501</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4356,13 +5112,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>313</v>
       </c>
       <c r="C122" t="s">
-        <v>313</v>
+        <v>502</v>
       </c>
       <c r="D122" t="s">
-        <v>502</v>
+        <v>691</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4370,13 +5126,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="C123" t="s">
-        <v>314</v>
+        <v>503</v>
       </c>
       <c r="D123" t="s">
-        <v>503</v>
+        <v>692</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4384,13 +5140,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c r="C124" t="s">
-        <v>315</v>
+        <v>504</v>
       </c>
       <c r="D124" t="s">
-        <v>504</v>
+        <v>693</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4398,13 +5154,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="C125" t="s">
-        <v>316</v>
+        <v>505</v>
       </c>
       <c r="D125" t="s">
-        <v>505</v>
+        <v>694</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4412,13 +5168,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="C126" t="s">
-        <v>317</v>
+        <v>506</v>
       </c>
       <c r="D126" t="s">
-        <v>506</v>
+        <v>695</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4426,13 +5182,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>318</v>
       </c>
       <c r="C127" t="s">
-        <v>318</v>
+        <v>507</v>
       </c>
       <c r="D127" t="s">
-        <v>507</v>
+        <v>696</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4440,13 +5196,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="C128" t="s">
-        <v>319</v>
+        <v>508</v>
       </c>
       <c r="D128" t="s">
-        <v>508</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4454,13 +5210,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="C129" t="s">
-        <v>320</v>
+        <v>509</v>
       </c>
       <c r="D129" t="s">
-        <v>509</v>
+        <v>698</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4468,13 +5224,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>321</v>
       </c>
       <c r="C130" t="s">
-        <v>321</v>
+        <v>510</v>
       </c>
       <c r="D130" t="s">
-        <v>510</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4482,13 +5238,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="C131" t="s">
-        <v>322</v>
+        <v>511</v>
       </c>
       <c r="D131" t="s">
-        <v>511</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4496,13 +5252,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="C132" t="s">
-        <v>323</v>
+        <v>512</v>
       </c>
       <c r="D132" t="s">
-        <v>512</v>
+        <v>701</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4510,13 +5266,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>324</v>
       </c>
       <c r="C133" t="s">
-        <v>324</v>
+        <v>513</v>
       </c>
       <c r="D133" t="s">
-        <v>513</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4524,13 +5280,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="C134" t="s">
-        <v>325</v>
+        <v>514</v>
       </c>
       <c r="D134" t="s">
-        <v>514</v>
+        <v>703</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4538,13 +5294,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
       <c r="C135" t="s">
-        <v>326</v>
+        <v>515</v>
       </c>
       <c r="D135" t="s">
-        <v>515</v>
+        <v>704</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4552,13 +5308,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="C136" t="s">
-        <v>327</v>
+        <v>516</v>
       </c>
       <c r="D136" t="s">
-        <v>516</v>
+        <v>705</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4566,13 +5322,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>328</v>
       </c>
       <c r="C137" t="s">
-        <v>328</v>
+        <v>517</v>
       </c>
       <c r="D137" t="s">
-        <v>517</v>
+        <v>706</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4580,13 +5336,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>329</v>
       </c>
       <c r="C138" t="s">
-        <v>329</v>
+        <v>518</v>
       </c>
       <c r="D138" t="s">
-        <v>518</v>
+        <v>707</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4594,13 +5350,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>330</v>
       </c>
       <c r="C139" t="s">
-        <v>330</v>
+        <v>519</v>
       </c>
       <c r="D139" t="s">
-        <v>519</v>
+        <v>708</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4608,13 +5364,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="C140" t="s">
-        <v>331</v>
+        <v>520</v>
       </c>
       <c r="D140" t="s">
-        <v>520</v>
+        <v>709</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4622,13 +5378,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>332</v>
       </c>
       <c r="C141" t="s">
-        <v>332</v>
+        <v>521</v>
       </c>
       <c r="D141" t="s">
-        <v>521</v>
+        <v>710</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4636,13 +5392,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>333</v>
       </c>
       <c r="C142" t="s">
-        <v>333</v>
+        <v>522</v>
       </c>
       <c r="D142" t="s">
-        <v>522</v>
+        <v>711</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4650,13 +5406,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>334</v>
       </c>
       <c r="C143" t="s">
-        <v>334</v>
+        <v>523</v>
       </c>
       <c r="D143" t="s">
-        <v>523</v>
+        <v>712</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4664,13 +5420,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>335</v>
       </c>
       <c r="C144" t="s">
-        <v>335</v>
+        <v>524</v>
       </c>
       <c r="D144" t="s">
-        <v>524</v>
+        <v>713</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4678,13 +5434,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>336</v>
       </c>
       <c r="C145" t="s">
-        <v>336</v>
+        <v>525</v>
       </c>
       <c r="D145" t="s">
-        <v>525</v>
+        <v>714</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4692,13 +5448,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>337</v>
       </c>
       <c r="C146" t="s">
-        <v>337</v>
+        <v>526</v>
       </c>
       <c r="D146" t="s">
-        <v>526</v>
+        <v>715</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4706,13 +5462,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="C147" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="D147" t="s">
-        <v>527</v>
+        <v>716</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4720,13 +5476,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="C148" t="s">
-        <v>339</v>
+        <v>528</v>
       </c>
       <c r="D148" t="s">
-        <v>528</v>
+        <v>717</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4734,13 +5490,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="C149" t="s">
-        <v>340</v>
+        <v>529</v>
       </c>
       <c r="D149" t="s">
-        <v>529</v>
+        <v>718</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4748,13 +5504,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="C150" t="s">
-        <v>341</v>
+        <v>530</v>
       </c>
       <c r="D150" t="s">
-        <v>530</v>
+        <v>719</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4762,13 +5518,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>342</v>
       </c>
       <c r="C151" t="s">
-        <v>342</v>
+        <v>531</v>
       </c>
       <c r="D151" t="s">
-        <v>531</v>
+        <v>720</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4776,13 +5532,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>343</v>
       </c>
       <c r="C152" t="s">
-        <v>343</v>
+        <v>532</v>
       </c>
       <c r="D152" t="s">
-        <v>532</v>
+        <v>721</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4790,13 +5546,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="C153" t="s">
-        <v>344</v>
+        <v>533</v>
       </c>
       <c r="D153" t="s">
-        <v>533</v>
+        <v>722</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4804,13 +5560,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>345</v>
       </c>
       <c r="C154" t="s">
-        <v>345</v>
+        <v>534</v>
       </c>
       <c r="D154" t="s">
-        <v>534</v>
+        <v>723</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4818,13 +5574,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>346</v>
       </c>
       <c r="C155" t="s">
-        <v>346</v>
+        <v>535</v>
       </c>
       <c r="D155" t="s">
-        <v>535</v>
+        <v>724</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4832,13 +5588,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="C156" t="s">
-        <v>347</v>
+        <v>536</v>
       </c>
       <c r="D156" t="s">
-        <v>536</v>
+        <v>725</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4846,13 +5602,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>348</v>
       </c>
       <c r="C157" t="s">
-        <v>348</v>
+        <v>537</v>
       </c>
       <c r="D157" t="s">
-        <v>537</v>
+        <v>726</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4860,13 +5616,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="C158" t="s">
-        <v>349</v>
+        <v>538</v>
       </c>
       <c r="D158" t="s">
-        <v>538</v>
+        <v>727</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4874,13 +5630,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>350</v>
       </c>
       <c r="C159" t="s">
-        <v>350</v>
+        <v>539</v>
       </c>
       <c r="D159" t="s">
-        <v>539</v>
+        <v>728</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4888,13 +5644,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>351</v>
       </c>
       <c r="C160" t="s">
-        <v>351</v>
+        <v>540</v>
       </c>
       <c r="D160" t="s">
-        <v>540</v>
+        <v>729</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4902,13 +5658,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="C161" t="s">
-        <v>352</v>
+        <v>541</v>
       </c>
       <c r="D161" t="s">
-        <v>541</v>
+        <v>730</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4916,13 +5672,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="C162" t="s">
-        <v>353</v>
+        <v>542</v>
       </c>
       <c r="D162" t="s">
-        <v>542</v>
+        <v>731</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4930,13 +5686,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="C163" t="s">
-        <v>354</v>
+        <v>543</v>
       </c>
       <c r="D163" t="s">
-        <v>543</v>
+        <v>732</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4944,13 +5700,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>355</v>
       </c>
       <c r="C164" t="s">
-        <v>355</v>
+        <v>544</v>
       </c>
       <c r="D164" t="s">
-        <v>544</v>
+        <v>733</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4958,13 +5714,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>356</v>
       </c>
       <c r="C165" t="s">
-        <v>356</v>
+        <v>545</v>
       </c>
       <c r="D165" t="s">
-        <v>545</v>
+        <v>734</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4972,13 +5728,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="C166" t="s">
-        <v>357</v>
+        <v>546</v>
       </c>
       <c r="D166" t="s">
-        <v>546</v>
+        <v>735</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4986,13 +5742,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>358</v>
       </c>
       <c r="C167" t="s">
-        <v>358</v>
+        <v>547</v>
       </c>
       <c r="D167" t="s">
-        <v>547</v>
+        <v>736</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5000,13 +5756,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>359</v>
       </c>
       <c r="C168" t="s">
-        <v>359</v>
+        <v>548</v>
       </c>
       <c r="D168" t="s">
-        <v>548</v>
+        <v>737</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5014,13 +5770,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>360</v>
       </c>
       <c r="C169" t="s">
-        <v>360</v>
+        <v>549</v>
       </c>
       <c r="D169" t="s">
-        <v>549</v>
+        <v>738</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5028,13 +5784,13 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>361</v>
       </c>
       <c r="C170" t="s">
-        <v>361</v>
+        <v>550</v>
       </c>
       <c r="D170" t="s">
-        <v>550</v>
+        <v>739</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5042,13 +5798,13 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>362</v>
       </c>
       <c r="C171" t="s">
-        <v>362</v>
+        <v>551</v>
       </c>
       <c r="D171" t="s">
-        <v>551</v>
+        <v>740</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5056,13 +5812,13 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>363</v>
       </c>
       <c r="C172" t="s">
-        <v>363</v>
+        <v>552</v>
       </c>
       <c r="D172" t="s">
-        <v>552</v>
+        <v>741</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5070,13 +5826,13 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="C173" t="s">
-        <v>364</v>
+        <v>553</v>
       </c>
       <c r="D173" t="s">
-        <v>553</v>
+        <v>742</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5084,13 +5840,13 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="C174" t="s">
-        <v>365</v>
+        <v>554</v>
       </c>
       <c r="D174" t="s">
-        <v>554</v>
+        <v>743</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5098,13 +5854,13 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="C175" t="s">
-        <v>366</v>
+        <v>555</v>
       </c>
       <c r="D175" t="s">
-        <v>555</v>
+        <v>744</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5112,13 +5868,13 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>367</v>
       </c>
       <c r="C176" t="s">
-        <v>367</v>
+        <v>556</v>
       </c>
       <c r="D176" t="s">
-        <v>556</v>
+        <v>745</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5126,13 +5882,13 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>368</v>
       </c>
       <c r="C177" t="s">
-        <v>368</v>
+        <v>557</v>
       </c>
       <c r="D177" t="s">
-        <v>557</v>
+        <v>746</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5140,13 +5896,13 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>369</v>
       </c>
       <c r="C178" t="s">
-        <v>369</v>
+        <v>558</v>
       </c>
       <c r="D178" t="s">
-        <v>558</v>
+        <v>747</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5154,13 +5910,13 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>370</v>
       </c>
       <c r="C179" t="s">
-        <v>370</v>
+        <v>559</v>
       </c>
       <c r="D179" t="s">
-        <v>559</v>
+        <v>748</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5168,13 +5924,13 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>371</v>
       </c>
       <c r="C180" t="s">
-        <v>371</v>
+        <v>560</v>
       </c>
       <c r="D180" t="s">
-        <v>560</v>
+        <v>749</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5182,13 +5938,13 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>372</v>
       </c>
       <c r="C181" t="s">
-        <v>372</v>
+        <v>561</v>
       </c>
       <c r="D181" t="s">
-        <v>561</v>
+        <v>750</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5196,13 +5952,13 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>373</v>
       </c>
       <c r="C182" t="s">
-        <v>373</v>
+        <v>562</v>
       </c>
       <c r="D182" t="s">
-        <v>562</v>
+        <v>751</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5210,13 +5966,13 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>374</v>
+        <v>563</v>
       </c>
       <c r="D183" t="s">
-        <v>563</v>
+        <v>752</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5224,13 +5980,13 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>375</v>
       </c>
       <c r="C184" t="s">
-        <v>375</v>
+        <v>564</v>
       </c>
       <c r="D184" t="s">
-        <v>564</v>
+        <v>753</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5238,13 +5994,13 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>376</v>
       </c>
       <c r="C185" t="s">
-        <v>376</v>
+        <v>565</v>
       </c>
       <c r="D185" t="s">
-        <v>565</v>
+        <v>754</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5252,13 +6008,13 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>377</v>
       </c>
       <c r="C186" t="s">
-        <v>377</v>
+        <v>566</v>
       </c>
       <c r="D186" t="s">
-        <v>566</v>
+        <v>755</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5266,13 +6022,13 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="C187" t="s">
-        <v>378</v>
+        <v>567</v>
       </c>
       <c r="D187" t="s">
-        <v>567</v>
+        <v>756</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5280,13 +6036,13 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>379</v>
       </c>
       <c r="C188" t="s">
-        <v>379</v>
+        <v>568</v>
       </c>
       <c r="D188" t="s">
-        <v>568</v>
+        <v>757</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5294,13 +6050,13 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>380</v>
       </c>
       <c r="C189" t="s">
-        <v>380</v>
+        <v>569</v>
       </c>
       <c r="D189" t="s">
-        <v>569</v>
+        <v>758</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5308,13 +6064,13 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>381</v>
       </c>
       <c r="C190" t="s">
-        <v>381</v>
+        <v>570</v>
       </c>
       <c r="D190" t="s">
-        <v>570</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_noirc_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_noirc_1_1.xlsx
@@ -2588,7 +2588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="오퍼레이터 차드"]  저번에 같이 임무에 나갔을 때도……. 딸꾹, 끝까지 말도 못 걸어봤는데.
+    <t xml:space="preserve">[name="오퍼레이터 차드"]  저번에 같이 임무에 나갔을 때도…… 딸꾹, 끝까지 말도 못 걸어봤는데.
 </t>
   </si>
   <si>
@@ -2976,7 +2976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="오퍼레이터 차드"]  크흠…… 박사님! 오, 오랜……. 아니, 좋은 저녁입니다!
+    <t xml:space="preserve">[name="오퍼레이터 차드"]  크흠…… 박사님! 오, 오랜…… 아니, 좋은 저녁입니다!
 </t>
   </si>
   <si>
